--- a/InputData/bldgs/SoDSCbRIC/Shr of Dist Solar Costs by Rcpnt ISIC Code.xlsx
+++ b/InputData/bldgs/SoDSCbRIC/Shr of Dist Solar Costs by Rcpnt ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\SoDSCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/sodscbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26EE6B0-3E57-4B02-B0C1-C4B8962AB1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4007D6D-DA58-C445-982F-09B6F8B5233F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="25660" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="124">
   <si>
     <t>https://www.nrel.gov/docs/fy19osti/72399.pdf</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Agriculture, forestry and fishing</t>
   </si>
   <si>
-    <t>Mining and extraction of energy producing products</t>
-  </si>
-  <si>
     <t>Mining and quarrying of non-energy producing products</t>
   </si>
   <si>
@@ -142,12 +139,6 @@
     <t>Rubber and plastics products</t>
   </si>
   <si>
-    <t>Other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>Manufacture of basic metals</t>
-  </si>
-  <si>
     <t>Fabricated metal products, except machinery and equipment</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>Other manufacturing; repair and installation of machinery and equipment</t>
   </si>
   <si>
-    <t>Electricity, gas, water supply, sewerage, waste and remediation services</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
@@ -223,9 +211,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -250,12 +235,6 @@
     <t>ISIC 22</t>
   </si>
   <si>
-    <t>ISIC 23</t>
-  </si>
-  <si>
-    <t>ISIC 24</t>
-  </si>
-  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -277,9 +256,6 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
-    <t>ISIC 35T39</t>
-  </si>
-  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -377,6 +353,60 @@
   </si>
   <si>
     <t>Chemicals</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>Coal mining</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>ISIC 231</t>
+  </si>
+  <si>
+    <t>ISIC 239</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Cement and other nonmetallic minerals</t>
+  </si>
+  <si>
+    <t>ISIC 241</t>
+  </si>
+  <si>
+    <t>ISIC 242</t>
+  </si>
+  <si>
+    <t>Iron and steel</t>
+  </si>
+  <si>
+    <t>Other metals</t>
+  </si>
+  <si>
+    <t>ISIC 351</t>
+  </si>
+  <si>
+    <t>ISIC 352T353</t>
+  </si>
+  <si>
+    <t>ISIC 36T39</t>
+  </si>
+  <si>
+    <t>Electricity generation and distribution</t>
+  </si>
+  <si>
+    <t>Energy pipelines and gas processing</t>
+  </si>
+  <si>
+    <t>Water and waste</t>
   </si>
 </sst>
 </file>
@@ -455,7 +485,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -473,6 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -755,66 +786,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C1" s="11">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -828,21 +862,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="66.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="66.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -854,33 +888,33 @@
         <v>24</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -896,16 +930,16 @@
         <v>0.11115462948456839</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -921,16 +955,16 @@
         <v>0.10778630737897542</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -946,16 +980,16 @@
         <v>0.11789127369575435</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -971,16 +1005,16 @@
         <v>2.020993263355789E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -996,16 +1030,16 @@
         <v>9.0944696851010504E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1020,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1042,16 +1076,16 @@
         <v>0.12454958483471723</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1101,16 @@
         <v>9.4234685884380387E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1092,16 +1126,16 @@
         <v>5.7183142722857593E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1117,16 +1151,16 @@
         <v>9.4234685884380387E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1142,24 +1176,24 @@
         <v>0.1818110606297979</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1168,36 +1202,36 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1213,16 +1247,16 @@
         <v>5.9203313436472164E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1238,16 +1272,16 @@
         <v>2.4668047265196738E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1263,16 +1297,16 @@
         <v>0.17760994030941649</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1287,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1309,16 +1343,16 @@
         <v>4.9336094530393476E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1334,16 +1368,16 @@
         <v>8.8804970154708243E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1359,16 +1393,16 @@
         <v>7.8937751248629548E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1384,16 +1418,16 @@
         <v>9.9524911682299919E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1409,16 +1443,16 @@
         <v>8.9657692776221209E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1434,16 +1468,16 @@
         <v>6.9923254964063833E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1459,101 +1493,141 @@
         <v>0.26233402363259839</v>
       </c>
       <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
         <v>74</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
         <v>84</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
         <v>85</v>
       </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
+      <c r="H41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
         <v>86</v>
       </c>
-      <c r="H29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="H42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" t="s">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="H43" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1566,131 +1640,146 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="L1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>87</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>95</v>
       </c>
       <c r="B2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!B1,Data!$D$3:$D$13)</f>
@@ -1750,27 +1839,27 @@
       </c>
       <c r="P2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!P1,Data!$D$3:$D$13)</f>
-        <v>5.7183142722857593E-2</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!Q1,Data!$D$3:$D$13)</f>
-        <v>0.1818110606297979</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!R1,Data!$D$3:$D$13)</f>
-        <v>0.18846937176876077</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!S1,Data!$D$3:$D$13)</f>
-        <v>0</v>
+        <v>5.7183142722857593E-2</v>
       </c>
       <c r="T2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!T1,Data!$D$3:$D$13)</f>
-        <v>0</v>
+        <v>0.1818110606297979</v>
       </c>
       <c r="U2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!U1,Data!$D$3:$D$13)</f>
-        <v>0</v>
+        <v>0.18846937176876077</v>
       </c>
       <c r="V2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!V1,Data!$D$3:$D$13)</f>
@@ -1782,7 +1871,7 @@
       </c>
       <c r="X2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!X1,Data!$D$3:$D$13)</f>
-        <v>0.30988563371455435</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!Y1,Data!$D$3:$D$13)</f>
@@ -1790,7 +1879,7 @@
       </c>
       <c r="Z2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!Z1,Data!$D$3:$D$13)</f>
-        <v>0.12454958483471723</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AA1,Data!$D$3:$D$13)</f>
@@ -1802,7 +1891,7 @@
       </c>
       <c r="AC2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AC1,Data!$D$3:$D$13)</f>
-        <v>0</v>
+        <v>0.30988563371455435</v>
       </c>
       <c r="AD2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AD1,Data!$D$3:$D$13)</f>
@@ -1810,7 +1899,7 @@
       </c>
       <c r="AE2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AE1,Data!$D$3:$D$13)</f>
-        <v>0</v>
+        <v>0.12454958483471723</v>
       </c>
       <c r="AF2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AF1,Data!$D$3:$D$13)</f>
@@ -1818,7 +1907,7 @@
       </c>
       <c r="AG2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AG1,Data!$D$3:$D$13)</f>
-        <v>0.13810120632931225</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AH1,Data!$D$3:$D$13)</f>
@@ -1838,23 +1927,43 @@
       </c>
       <c r="AL2">
         <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AL1,Data!$D$3:$D$13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0.13810120632931225</v>
+      </c>
+      <c r="AM2">
+        <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AM1,Data!$D$3:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AN1,Data!$D$3:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AO1,Data!$D$3:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AP1,Data!$D$3:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <f>SUMIF(Data!$E$3:$E$13,SoDSCbRIC!AQ1,Data!$D$3:$D$13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <f>B2</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:AL3" si="0">C2</f>
+        <f t="shared" ref="C3:AQ3" si="0">C2</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3" si="1">D2</f>
         <v>0</v>
       </c>
       <c r="E3">
@@ -1886,11 +1995,11 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3" si="1">L2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M3" si="2">M2</f>
         <v>0</v>
       </c>
       <c r="N3">
@@ -1902,29 +2011,29 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <f t="shared" ref="P3" si="3">P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3" si="4">R2</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
         <f t="shared" si="0"/>
         <v>5.7183142722857593E-2</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <f t="shared" si="0"/>
         <v>0.1818110606297979</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <f t="shared" si="0"/>
         <v>0.18846937176876077</v>
       </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="V3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1935,68 +2044,88 @@
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AB3" si="5">AA2</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
         <v>0.30988563371455435</v>
       </c>
-      <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <f t="shared" si="0"/>
         <v>0.12454958483471723</v>
       </c>
-      <c r="AA3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AF3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
         <v>0.13810120632931225</v>
       </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!B1,Data!$D$17:$D$27)</f>
@@ -2056,27 +2185,27 @@
       </c>
       <c r="P4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!P1,Data!$D$17:$D$27)</f>
-        <v>8.9657692776221209E-2</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!Q1,Data!$D$17:$D$27)</f>
-        <v>0.26233402363259839</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!R1,Data!$D$17:$D$27)</f>
-        <v>0.16944816664636375</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!S1,Data!$D$17:$D$27)</f>
-        <v>0</v>
+        <v>8.9657692776221209E-2</v>
       </c>
       <c r="T4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!T1,Data!$D$17:$D$27)</f>
-        <v>0</v>
+        <v>0.26233402363259839</v>
       </c>
       <c r="U4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!U1,Data!$D$17:$D$27)</f>
-        <v>0</v>
+        <v>0.16944816664636375</v>
       </c>
       <c r="V4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!V1,Data!$D$17:$D$27)</f>
@@ -2088,7 +2217,7 @@
       </c>
       <c r="X4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!X1,Data!$D$17:$D$27)</f>
-        <v>0.42922402241442315</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!Y1,Data!$D$17:$D$27)</f>
@@ -2108,7 +2237,7 @@
       </c>
       <c r="AC4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AC1,Data!$D$17:$D$27)</f>
-        <v>0</v>
+        <v>0.42922402241442315</v>
       </c>
       <c r="AD4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AD1,Data!$D$17:$D$27)</f>
@@ -2124,7 +2253,7 @@
       </c>
       <c r="AG4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AG1,Data!$D$17:$D$27)</f>
-        <v>4.9336094530393476E-2</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AH1,Data!$D$17:$D$27)</f>
@@ -2144,6 +2273,26 @@
       </c>
       <c r="AL4">
         <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AL1,Data!$D$17:$D$27)</f>
+        <v>4.9336094530393476E-2</v>
+      </c>
+      <c r="AM4">
+        <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AM1,Data!$D$17:$D$27)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AN1,Data!$D$17:$D$27)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AO1,Data!$D$17:$D$27)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AP1,Data!$D$17:$D$27)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <f>SUMIF(Data!$E$17:$E$27,SoDSCbRIC!AQ1,Data!$D$17:$D$27)</f>
         <v>0</v>
       </c>
     </row>
